--- a/Графики цены.xlsx
+++ b/Графики цены.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0 Naumov VY\GZ\2022\Расчеты цены ЭЭ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NaumovVY\Documents\GitHub\GZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537F03E5-3645-47EF-961B-15987E9BFDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2855F81F-DFB2-4AF7-A84C-69C723C04208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9100" yWindow="1240" windowWidth="10800" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="175" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -146,7 +146,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -31032,16 +31032,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>554878</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>50520</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>480171</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>5697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>468479</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>151670</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>393773</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>106846</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -31337,14 +31337,19 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:AQ732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="29" max="31" width="9.81640625" bestFit="1" customWidth="1"/>

--- a/Графики цены.xlsx
+++ b/Графики цены.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NaumovVY\Documents\GitHub\GZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2855F81F-DFB2-4AF7-A84C-69C723C04208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641F07C5-22B4-4517-AE9F-271A54912FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9100" yWindow="1240" windowWidth="10800" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27734,25 +27734,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>-22</c:v>
+                  <c:v>-29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-18</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-16</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-14</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-12</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-6</c:v>
@@ -27821,25 +27821,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1838.2445975999999</c:v>
+                  <c:v>1868.1909168</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1819.6752584000001</c:v>
+                  <c:v>1851.9749999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1810.9196352000001</c:v>
+                  <c:v>1828.8786</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1802.8967928</c:v>
+                  <c:v>1806.7988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1795.8917936</c:v>
+                  <c:v>1790.1897000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1790.1897000000001</c:v>
+                  <c:v>1783.5054</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1786.0755744000001</c:v>
+                  <c:v>1791.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1783.8344792</c:v>
@@ -27941,25 +27941,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>-22</c:v>
+                  <c:v>-29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-18</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-16</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-14</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-12</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-6</c:v>
@@ -28028,25 +28028,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1612.2520976000001</c:v>
+                  <c:v>1649.8371668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1589.3177584</c:v>
+                  <c:v>1629.2562499999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1578.3796351999999</c:v>
+                  <c:v>1600.7036000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1568.1742928000001</c:v>
+                  <c:v>1573.1675500000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1558.9867936000001</c:v>
+                  <c:v>1551.1022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1551.1022</c:v>
+                  <c:v>1538.96165</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1544.8055744000001</c:v>
+                  <c:v>1541.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1540.3819791999999</c:v>
@@ -28148,25 +28148,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>-22</c:v>
+                  <c:v>-29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-18</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-16</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-14</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-12</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-6</c:v>
@@ -28235,82 +28235,82 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1530.4890765760001</c:v>
+                  <c:v>1524.0881160680001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1460.033489184</c:v>
+                  <c:v>1473.4533125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1429.2857067520001</c:v>
+                  <c:v>1418.4368960000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1401.528399328</c:v>
+                  <c:v>1372.6588154999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1376.7644175360001</c:v>
+                  <c:v>1336.1636120000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1354.9966120000001</c:v>
+                  <c:v>1308.9958265</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1336.2278333440001</c:v>
+                  <c:v>1291.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1320.460932192</c:v>
+                  <c:v>1313.6810521920002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1307.6987591680002</c:v>
+                  <c:v>1304.685479168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1297.9441648960001</c:v>
+                  <c:v>1297.190844896</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1291.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1287.4691151040001</c:v>
+                  <c:v>1286.7157951040001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1286.754360832</c:v>
+                  <c:v>1283.7410808320001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1289.0585878080001</c:v>
+                  <c:v>1282.278707808</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1294.3846466560001</c:v>
+                  <c:v>1282.3315266560001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1302.7353880000001</c:v>
+                  <c:v>1283.902388</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1314.1136624640001</c:v>
+                  <c:v>1286.9941424640001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1328.522320672</c:v>
+                  <c:v>1291.6096406720001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1345.9642132480001</c:v>
+                  <c:v>1297.7517332479999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1366.442190816</c:v>
+                  <c:v>1305.423270816</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1389.959104</c:v>
+                  <c:v>1314.6271040000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1416.517803424</c:v>
+                  <c:v>1325.366083424</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1446.1211397120001</c:v>
+                  <c:v>1337.643059712</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1478.771963488</c:v>
+                  <c:v>1351.460883488</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1514.4731253760001</c:v>
+                  <c:v>1366.822405376</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1533.4684739320001</c:v>
+                  <c:v>1375.082943932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28355,22 +28355,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>-22</c:v>
+                  <c:v>-29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-18</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-16</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-14</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-12</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-8</c:v>
@@ -28442,22 +28442,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>704.57599379999999</c:v>
+                  <c:v>798.77106225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>668.54332339999996</c:v>
+                  <c:v>739.60415624999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>654.47244479999995</c:v>
+                  <c:v>685.15146000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>642.65968499999997</c:v>
+                  <c:v>648.30124624999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>632.82590479999999</c:v>
+                  <c:v>624.69196499999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>624.69196499999998</c:v>
+                  <c:v>609.96206625000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>617.97872640000003</c:v>
@@ -28564,22 +28564,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>-22</c:v>
+                  <c:v>-29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-18</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-16</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-14</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-12</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-8</c:v>
@@ -28651,22 +28651,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>950.20683120000001</c:v>
+                  <c:v>1055.0673436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>910.69266479999999</c:v>
+                  <c:v>989.09325000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>895.59368640000002</c:v>
+                  <c:v>928.80399999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>883.22792560000005</c:v>
+                  <c:v>889.08659999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>873.31624320000003</c:v>
+                  <c:v>865.57950000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>865.57950000000005</c:v>
+                  <c:v>853.92115000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>859.73855679999997</c:v>
@@ -28773,22 +28773,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>-22</c:v>
+                  <c:v>-29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-18</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-16</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-14</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-12</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-8</c:v>
@@ -28860,82 +28860,82 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1053.7620168000001</c:v>
+                  <c:v>1265.6976259399999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1056.2781032</c:v>
+                  <c:v>1207.7955625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1055.8786656</c:v>
+                  <c:v>1147.5468799999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1054.7464264</c:v>
+                  <c:v>1101.1818275000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1053.1605248000001</c:v>
+                  <c:v>1069.1365599999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1051.4001000000001</c:v>
+                  <c:v>1051.8472325</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1049.7442911999999</c:v>
+                  <c:v>1060.4256915200001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1048.4722376</c:v>
+                  <c:v>1054.1036873600001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1047.8630783999999</c:v>
+                  <c:v>1050.1984614400001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1048.1959528</c:v>
+                  <c:v>1048.73792768</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1049.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1052.8043591999999</c:v>
+                  <c:v>1053.2625923200001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1057.6381696000001</c:v>
+                  <c:v>1059.3036185599999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1064.5305704</c:v>
+                  <c:v>1067.9009926399999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1073.7607008</c:v>
+                  <c:v>1079.08262848</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1085.6077</c:v>
+                  <c:v>1092.87644</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1100.3507072</c:v>
+                  <c:v>1109.31034112</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1118.2688616</c:v>
+                  <c:v>1128.4122457599999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1139.6413024000001</c:v>
+                  <c:v>1150.21006784</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1164.7471688000001</c:v>
+                  <c:v>1174.7317212799999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1193.8656000000001</c:v>
+                  <c:v>1202.00512</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1227.2757352000001</c:v>
+                  <c:v>1232.0581779199999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1265.2567136</c:v>
+                  <c:v>1264.91880896</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1308.0876744</c:v>
+                  <c:v>1300.6149270400001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1356.0477568000001</c:v>
+                  <c:v>1339.1744460800001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1382.0384496000001</c:v>
+                  <c:v>1359.5367040599999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28963,7 +28963,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
-          <c:min val="-25"/>
+          <c:min val="-30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -30957,15 +30957,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>397288</xdr:colOff>
+      <xdr:colOff>85560</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19176</xdr:rowOff>
+      <xdr:rowOff>42267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>186876</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>487057</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>70647</xdr:rowOff>
+      <xdr:rowOff>93738</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30995,15 +30995,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>389218</xdr:colOff>
+      <xdr:colOff>54400</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>78815</xdr:rowOff>
+      <xdr:rowOff>101906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>178806</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>455897</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>130285</xdr:rowOff>
+      <xdr:rowOff>153376</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -31337,8 +31337,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:AQ732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+    <sheetView tabSelected="1" topLeftCell="P27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG48" sqref="AG48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31620,7 +31620,7 @@
       </c>
       <c r="AE15" s="4">
         <f>V30</f>
-        <v>5.8154000000000001E-3</v>
+        <v>5.8154000000000007E-4</v>
       </c>
       <c r="AF15" s="4">
         <f>V20</f>
@@ -31649,7 +31649,7 @@
       </c>
       <c r="AB16" s="4">
         <f t="shared" ref="AB16:AB18" si="0">R31</f>
-        <v>0.37665999999999999</v>
+        <v>0.18833</v>
       </c>
       <c r="AC16" s="4">
         <f t="shared" ref="AC16:AC18" si="1">R21</f>
@@ -31661,7 +31661,7 @@
       </c>
       <c r="AE16" s="4">
         <f t="shared" ref="AE16:AE18" si="3">V31</f>
-        <v>0.18753900000000001</v>
+        <v>0.31256499999999998</v>
       </c>
       <c r="AF16" s="4">
         <f t="shared" ref="AF16:AF18" si="4">V21</f>
@@ -32035,14 +32035,14 @@
       </c>
       <c r="S28" s="3">
         <f>SUM(S30:S34)</f>
-        <v>1286.734543476</v>
+        <v>1285.039573476</v>
       </c>
       <c r="V28" t="s">
         <v>7</v>
       </c>
       <c r="W28" s="3">
         <f>SUM(W30:W34)</f>
-        <v>1286.0484999999999</v>
+        <v>1282.4106875</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.35">
@@ -32093,12 +32093,12 @@
         <v>3</v>
       </c>
       <c r="V30" s="3">
-        <f>V20*-1</f>
-        <v>5.8154000000000001E-3</v>
+        <f>V20*-0.1</f>
+        <v>5.8154000000000007E-4</v>
       </c>
       <c r="W30" s="3">
         <f>$W$17^U30*V30</f>
-        <v>90.865624999999994</v>
+        <v>9.0865625000000012</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.35">
@@ -32118,23 +32118,23 @@
         <v>2</v>
       </c>
       <c r="R31" s="3">
-        <f>R21*1</f>
-        <v>0.37665999999999999</v>
+        <f>R21*0.5</f>
+        <v>0.18833</v>
       </c>
       <c r="S31" s="3">
         <f>$S$17^Q31*R31</f>
-        <v>3.3899400000000002</v>
+        <v>1.6949700000000001</v>
       </c>
       <c r="U31">
         <v>2</v>
       </c>
       <c r="V31" s="3">
-        <f>V21*3</f>
-        <v>0.18753900000000001</v>
+        <f>V21*5</f>
+        <v>0.31256499999999998</v>
       </c>
       <c r="W31" s="3">
         <f t="shared" ref="W31:W32" si="7">$W$17^U31*V31</f>
-        <v>117.21187500000001</v>
+        <v>195.35312499999998</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.35">
@@ -32534,25 +32534,25 @@
         <v>6</v>
       </c>
       <c r="R47">
-        <v>-22</v>
+        <v>-29</v>
       </c>
       <c r="S47">
-        <v>-18</v>
+        <v>-25</v>
       </c>
       <c r="T47">
-        <v>-16</v>
+        <v>-20</v>
       </c>
       <c r="U47">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="V47">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="W47">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="X47">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>-6</v>
@@ -32634,31 +32634,31 @@
       </c>
       <c r="R48" s="3">
         <f>R47^$Q$39*$R$39+R47^$Q$40*$R$40+R47^$Q$41*$R$41+$R$42</f>
-        <v>1838.2445975999999</v>
+        <v>1868.1909168</v>
       </c>
       <c r="S48" s="3">
         <f t="shared" ref="S48:AQ48" si="9">S47^$Q$39*$R$39+S47^$Q$40*$R$40+S47^$Q$41*$R$41+$R$42</f>
-        <v>1819.6752584000001</v>
+        <v>1851.9749999999999</v>
       </c>
       <c r="T48" s="3">
         <f t="shared" si="9"/>
-        <v>1810.9196352000001</v>
+        <v>1828.8786</v>
       </c>
       <c r="U48" s="3">
         <f t="shared" si="9"/>
-        <v>1802.8967928</v>
+        <v>1806.7988</v>
       </c>
       <c r="V48" s="3">
         <f t="shared" si="9"/>
-        <v>1795.8917936</v>
+        <v>1790.1897000000001</v>
       </c>
       <c r="W48" s="3">
         <f t="shared" si="9"/>
-        <v>1790.1897000000001</v>
+        <v>1783.5054</v>
       </c>
       <c r="X48" s="3">
         <f t="shared" si="9"/>
-        <v>1786.0755744000001</v>
+        <v>1791.2</v>
       </c>
       <c r="Y48" s="3">
         <f t="shared" si="9"/>
@@ -32759,31 +32759,31 @@
       </c>
       <c r="R49" s="3">
         <f>R47^$Q$20*$R$20+R47^$Q$21*$R$21+R47^$Q$22*$R$22+$R$23</f>
-        <v>1612.2520976000001</v>
+        <v>1649.8371668</v>
       </c>
       <c r="S49" s="3">
         <f t="shared" ref="S49:AP49" si="11">S47^$Q$20*$R$20+S47^$Q$21*$R$21+S47^$Q$22*$R$22+$R$23</f>
-        <v>1589.3177584</v>
+        <v>1629.2562499999999</v>
       </c>
       <c r="T49" s="3">
         <f t="shared" si="11"/>
-        <v>1578.3796351999999</v>
+        <v>1600.7036000000001</v>
       </c>
       <c r="U49" s="3">
         <f t="shared" si="11"/>
-        <v>1568.1742928000001</v>
+        <v>1573.1675500000001</v>
       </c>
       <c r="V49" s="3">
         <f t="shared" si="11"/>
-        <v>1558.9867936000001</v>
+        <v>1551.1022</v>
       </c>
       <c r="W49" s="3">
         <f t="shared" si="11"/>
-        <v>1551.1022</v>
+        <v>1538.96165</v>
       </c>
       <c r="X49" s="3">
         <f t="shared" si="11"/>
-        <v>1544.8055744000001</v>
+        <v>1541.2</v>
       </c>
       <c r="Y49" s="3">
         <f t="shared" si="11"/>
@@ -32884,43 +32884,43 @@
       </c>
       <c r="R50" s="3">
         <f>R47^$Q$30*$R$30+R47^$Q$31*$R$31+R47^$Q$32*$R$32+$R$33</f>
-        <v>1530.4890765760001</v>
+        <v>1524.0881160680001</v>
       </c>
       <c r="S50" s="3">
         <f t="shared" ref="S50:AP50" si="13">S47^$Q$30*$R$30+S47^$Q$31*$R$31+S47^$Q$32*$R$32+$R$33</f>
-        <v>1460.033489184</v>
+        <v>1473.4533125</v>
       </c>
       <c r="T50" s="3">
         <f t="shared" si="13"/>
-        <v>1429.2857067520001</v>
+        <v>1418.4368960000002</v>
       </c>
       <c r="U50" s="3">
         <f t="shared" si="13"/>
-        <v>1401.528399328</v>
+        <v>1372.6588154999999</v>
       </c>
       <c r="V50" s="3">
         <f t="shared" si="13"/>
-        <v>1376.7644175360001</v>
+        <v>1336.1636120000001</v>
       </c>
       <c r="W50" s="3">
         <f t="shared" si="13"/>
-        <v>1354.9966120000001</v>
+        <v>1308.9958265</v>
       </c>
       <c r="X50" s="3">
         <f t="shared" si="13"/>
-        <v>1336.2278333440001</v>
+        <v>1291.2</v>
       </c>
       <c r="Y50" s="3">
         <f t="shared" si="13"/>
-        <v>1320.460932192</v>
+        <v>1313.6810521920002</v>
       </c>
       <c r="Z50" s="3">
         <f t="shared" si="13"/>
-        <v>1307.6987591680002</v>
+        <v>1304.685479168</v>
       </c>
       <c r="AA50" s="3">
         <f t="shared" si="13"/>
-        <v>1297.9441648960001</v>
+        <v>1297.190844896</v>
       </c>
       <c r="AB50" s="3">
         <f t="shared" si="13"/>
@@ -32928,63 +32928,63 @@
       </c>
       <c r="AC50" s="3">
         <f t="shared" si="13"/>
-        <v>1287.4691151040001</v>
+        <v>1286.7157951040001</v>
       </c>
       <c r="AD50" s="3">
         <f t="shared" si="13"/>
-        <v>1286.754360832</v>
+        <v>1283.7410808320001</v>
       </c>
       <c r="AE50" s="3">
         <f t="shared" si="13"/>
-        <v>1289.0585878080001</v>
+        <v>1282.278707808</v>
       </c>
       <c r="AF50" s="3">
         <f t="shared" si="13"/>
-        <v>1294.3846466560001</v>
+        <v>1282.3315266560001</v>
       </c>
       <c r="AG50" s="3">
         <f t="shared" si="13"/>
-        <v>1302.7353880000001</v>
+        <v>1283.902388</v>
       </c>
       <c r="AH50" s="3">
         <f t="shared" si="13"/>
-        <v>1314.1136624640001</v>
+        <v>1286.9941424640001</v>
       </c>
       <c r="AI50" s="3">
         <f t="shared" si="13"/>
-        <v>1328.522320672</v>
+        <v>1291.6096406720001</v>
       </c>
       <c r="AJ50" s="3">
         <f t="shared" si="13"/>
-        <v>1345.9642132480001</v>
+        <v>1297.7517332479999</v>
       </c>
       <c r="AK50" s="3">
         <f t="shared" si="13"/>
-        <v>1366.442190816</v>
+        <v>1305.423270816</v>
       </c>
       <c r="AL50" s="3">
         <f t="shared" si="13"/>
-        <v>1389.959104</v>
+        <v>1314.6271040000001</v>
       </c>
       <c r="AM50" s="3">
         <f t="shared" si="13"/>
-        <v>1416.517803424</v>
+        <v>1325.366083424</v>
       </c>
       <c r="AN50" s="3">
         <f t="shared" si="13"/>
-        <v>1446.1211397120001</v>
+        <v>1337.643059712</v>
       </c>
       <c r="AO50" s="3">
         <f t="shared" si="13"/>
-        <v>1478.771963488</v>
+        <v>1351.460883488</v>
       </c>
       <c r="AP50" s="3">
         <f t="shared" si="13"/>
-        <v>1514.4731253760001</v>
+        <v>1366.822405376</v>
       </c>
       <c r="AQ50" s="3">
         <f t="shared" ref="AQ50" si="14">AQ47^$Q$30*$R$30+AQ47^$Q$31*$R$31+AQ47^$Q$32*$R$32+$R$33</f>
-        <v>1533.4684739320001</v>
+        <v>1375.082943932</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.35">
@@ -33035,22 +33035,22 @@
         <v>6</v>
       </c>
       <c r="R53">
-        <v>-22</v>
+        <v>-29</v>
       </c>
       <c r="S53">
-        <v>-18</v>
+        <v>-25</v>
       </c>
       <c r="T53">
-        <v>-16</v>
+        <v>-20</v>
       </c>
       <c r="U53">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="V53">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="W53">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="X53">
         <v>-8</v>
@@ -33135,27 +33135,27 @@
       </c>
       <c r="R54" s="3">
         <f>R53^$U$39*$V$39+R53^$U$40*$V$40+R53^$U$41*$V$41+$V$42</f>
-        <v>704.57599379999999</v>
+        <v>798.77106225</v>
       </c>
       <c r="S54" s="3">
         <f t="shared" ref="S54:AQ54" si="15">S53^$U$39*$V$39+S53^$U$40*$V$40+S53^$U$41*$V$41+$V$42</f>
-        <v>668.54332339999996</v>
+        <v>739.60415624999996</v>
       </c>
       <c r="T54" s="3">
         <f t="shared" si="15"/>
-        <v>654.47244479999995</v>
+        <v>685.15146000000004</v>
       </c>
       <c r="U54" s="3">
         <f t="shared" si="15"/>
-        <v>642.65968499999997</v>
+        <v>648.30124624999996</v>
       </c>
       <c r="V54" s="3">
         <f t="shared" si="15"/>
-        <v>632.82590479999999</v>
+        <v>624.69196499999998</v>
       </c>
       <c r="W54" s="3">
         <f t="shared" si="15"/>
-        <v>624.69196499999998</v>
+        <v>609.96206625000002</v>
       </c>
       <c r="X54" s="3">
         <f t="shared" si="15"/>
@@ -33260,27 +33260,27 @@
       </c>
       <c r="R55" s="3">
         <f>R53^$U$20*$V$20+R53^$U$21*$V$21+R53^$U$22*$V$22+$V$23</f>
-        <v>950.20683120000001</v>
+        <v>1055.0673436</v>
       </c>
       <c r="S55" s="3">
         <f t="shared" ref="S55:AP55" si="17">S53^$U$20*$V$20+S53^$U$21*$V$21+S53^$U$22*$V$22+$V$23</f>
-        <v>910.69266479999999</v>
+        <v>989.09325000000001</v>
       </c>
       <c r="T55" s="3">
         <f t="shared" si="17"/>
-        <v>895.59368640000002</v>
+        <v>928.80399999999997</v>
       </c>
       <c r="U55" s="3">
         <f t="shared" si="17"/>
-        <v>883.22792560000005</v>
+        <v>889.08659999999998</v>
       </c>
       <c r="V55" s="3">
         <f t="shared" si="17"/>
-        <v>873.31624320000003</v>
+        <v>865.57950000000005</v>
       </c>
       <c r="W55" s="3">
         <f t="shared" si="17"/>
-        <v>865.57950000000005</v>
+        <v>853.92115000000001</v>
       </c>
       <c r="X55" s="3">
         <f t="shared" si="17"/>
@@ -33385,43 +33385,43 @@
       </c>
       <c r="R56" s="3">
         <f>R53^$U$30*$V$30+R53^$U$31*$V$31+R53^$U$32*$V$32+$V$33</f>
-        <v>1053.7620168000001</v>
+        <v>1265.6976259399999</v>
       </c>
       <c r="S56" s="3">
         <f t="shared" ref="S56:AP56" si="19">S53^$U$30*$V$30+S53^$U$31*$V$31+S53^$U$32*$V$32+$V$33</f>
-        <v>1056.2781032</v>
+        <v>1207.7955625</v>
       </c>
       <c r="T56" s="3">
         <f t="shared" si="19"/>
-        <v>1055.8786656</v>
+        <v>1147.5468799999999</v>
       </c>
       <c r="U56" s="3">
         <f t="shared" si="19"/>
-        <v>1054.7464264</v>
+        <v>1101.1818275000001</v>
       </c>
       <c r="V56" s="3">
         <f t="shared" si="19"/>
-        <v>1053.1605248000001</v>
+        <v>1069.1365599999999</v>
       </c>
       <c r="W56" s="3">
         <f t="shared" si="19"/>
-        <v>1051.4001000000001</v>
+        <v>1051.8472325</v>
       </c>
       <c r="X56" s="3">
         <f t="shared" si="19"/>
-        <v>1049.7442911999999</v>
+        <v>1060.4256915200001</v>
       </c>
       <c r="Y56" s="3">
         <f t="shared" si="19"/>
-        <v>1048.4722376</v>
+        <v>1054.1036873600001</v>
       </c>
       <c r="Z56" s="3">
         <f t="shared" si="19"/>
-        <v>1047.8630783999999</v>
+        <v>1050.1984614400001</v>
       </c>
       <c r="AA56" s="3">
         <f t="shared" si="19"/>
-        <v>1048.1959528</v>
+        <v>1048.73792768</v>
       </c>
       <c r="AB56" s="3">
         <f t="shared" si="19"/>
@@ -33429,63 +33429,63 @@
       </c>
       <c r="AC56" s="3">
         <f t="shared" si="19"/>
-        <v>1052.8043591999999</v>
+        <v>1053.2625923200001</v>
       </c>
       <c r="AD56" s="3">
         <f t="shared" si="19"/>
-        <v>1057.6381696000001</v>
+        <v>1059.3036185599999</v>
       </c>
       <c r="AE56" s="3">
         <f t="shared" si="19"/>
-        <v>1064.5305704</v>
+        <v>1067.9009926399999</v>
       </c>
       <c r="AF56" s="3">
         <f t="shared" si="19"/>
-        <v>1073.7607008</v>
+        <v>1079.08262848</v>
       </c>
       <c r="AG56" s="3">
         <f t="shared" si="19"/>
-        <v>1085.6077</v>
+        <v>1092.87644</v>
       </c>
       <c r="AH56" s="3">
         <f t="shared" si="19"/>
-        <v>1100.3507072</v>
+        <v>1109.31034112</v>
       </c>
       <c r="AI56" s="3">
         <f t="shared" si="19"/>
-        <v>1118.2688616</v>
+        <v>1128.4122457599999</v>
       </c>
       <c r="AJ56" s="3">
         <f t="shared" si="19"/>
-        <v>1139.6413024000001</v>
+        <v>1150.21006784</v>
       </c>
       <c r="AK56" s="3">
         <f t="shared" si="19"/>
-        <v>1164.7471688000001</v>
+        <v>1174.7317212799999</v>
       </c>
       <c r="AL56" s="3">
         <f t="shared" si="19"/>
-        <v>1193.8656000000001</v>
+        <v>1202.00512</v>
       </c>
       <c r="AM56" s="3">
         <f t="shared" si="19"/>
-        <v>1227.2757352000001</v>
+        <v>1232.0581779199999</v>
       </c>
       <c r="AN56" s="3">
         <f t="shared" si="19"/>
-        <v>1265.2567136</v>
+        <v>1264.91880896</v>
       </c>
       <c r="AO56" s="3">
         <f t="shared" si="19"/>
-        <v>1308.0876744</v>
+        <v>1300.6149270400001</v>
       </c>
       <c r="AP56" s="3">
         <f t="shared" si="19"/>
-        <v>1356.0477568000001</v>
+        <v>1339.1744460800001</v>
       </c>
       <c r="AQ56" s="3">
         <f t="shared" ref="AQ56" si="20">AQ53^$U$30*$V$30+AQ53^$U$31*$V$31+AQ53^$U$32*$V$32+$V$33</f>
-        <v>1382.0384496000001</v>
+        <v>1359.5367040599999</v>
       </c>
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.35">

--- a/Графики цены.xlsx
+++ b/Графики цены.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NaumovVY\Documents\GitHub\GZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641F07C5-22B4-4517-AE9F-271A54912FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B58033-AC01-4174-9F96-B6E29174E04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-13860" yWindow="3160" windowWidth="10800" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -9265,7 +9265,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Индекс равновесной цены электроэнергии, руб.МВт·ч</a:t>
+                  <a:t>Индекс равновесной цены электроэнергии, руб.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>МВт·ч</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -18621,7 +18629,15 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>, руб.МВт·ч</a:t>
+                  <a:t>, руб.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>МВт·ч</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -29124,7 +29140,15 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>, руб.МВт·ч</a:t>
+                  <a:t>, руб.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>МВт·ч</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -31337,8 +31361,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:AQ732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG48" sqref="AG48"/>
+    <sheetView tabSelected="1" topLeftCell="O14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y44" sqref="Y44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
